--- a/ngon-ngu-lap-trinh-2018.xlsx
+++ b/ngon-ngu-lap-trinh-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuyen\OneDrive\Desktop\abc\STBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49093D54-61A8-4D78-8FB6-CD838B44AE09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC6F5D1-440A-41CB-81EC-B327A49705F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EA2E301-044C-4A41-B6D9-A91ACE7D702E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>TOP PROGRAMMING LANGUAGE</t>
   </si>
@@ -96,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -104,11 +104,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -126,13 +129,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -239,7 +242,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22130005200208008"/>
+          <c:y val="0.11155988594391172"/>
+          <c:w val="0.56572006502307337"/>
+          <c:h val="0.78746258489288035"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -297,6 +310,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -339,6 +357,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -381,6 +404,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -423,6 +451,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -465,6 +498,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -507,6 +545,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -552,6 +595,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -597,12 +645,17 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-35A3-4036-80FC-6C6297261C7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$12</c:f>
+              <c:f>Sheet1!$B$5:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>JavaScript</c:v>
                 </c:pt>
@@ -616,15 +669,12 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Python</c:v>
+                  <c:v>C#</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>C#</c:v>
+                  <c:v>PHP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>PHP</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>Ruby</c:v>
                 </c:pt>
               </c:strCache>
@@ -649,15 +699,12 @@
                   <c:v>0.45300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38800000000000001</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34399999999999997</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.10100000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1351,21 +1398,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED9C38AD-40BD-468D-9E94-8722882FAD0B}" name="Table1" displayName="Table1" ref="B4:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED9C38AD-40BD-468D-9E94-8722882FAD0B}" name="Table1" displayName="Table1" ref="B4:C12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B4:C12" xr:uid="{640EFF39-36FE-44DE-A3FD-91A7BA1D469B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{28F73C0A-7237-408C-B79C-22EC1CE32C33}" name="PROGRAMMING LANGUAGE" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A4A7DD02-BCE9-492A-95B5-9BB845F05D2A}" name="POPULAR" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{28F73C0A-7237-408C-B79C-22EC1CE32C33}" name="PROGRAMMING LANGUAGE" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A4A7DD02-BCE9-492A-95B5-9BB845F05D2A}" name="POPULAR" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42929353-920B-4548-ACF6-F409C6645617}" name="Table3" displayName="Table3" ref="A4:A12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42929353-920B-4548-ACF6-F409C6645617}" name="Table3" displayName="Table3" ref="A4:A12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A4:A12" xr:uid="{8BB544BD-AF8A-4F74-9078-36EB1DC64655}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EB44FA18-579E-4012-A50A-7C1F8ACAF55E}" name="STT" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EB44FA18-579E-4012-A50A-7C1F8ACAF55E}" name="STT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,7 +1718,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,14 +1728,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1708,7 +1755,7 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.69799999999999995</v>
       </c>
     </row>
@@ -1719,7 +1766,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.45300000000000001</v>
       </c>
     </row>
@@ -1730,7 +1777,7 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.38800000000000001</v>
       </c>
     </row>
@@ -1741,92 +1788,84 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.38800000000000001</v>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.34399999999999997</v>
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.307</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
+      <c r="A11" s="2">
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.307</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.10100000000000001</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
